--- a/T2/plots.xlsx
+++ b/T2/plots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="37680" windowHeight="21100" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="37680" windowHeight="21100" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sizes" sheetId="5" r:id="rId1"/>
@@ -225,7 +225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -376,11 +375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2060279600"/>
-        <c:axId val="-2056857024"/>
+        <c:axId val="2120329008"/>
+        <c:axId val="-2133755472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2060279600"/>
+        <c:axId val="2120329008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,12 +422,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056857024"/>
+        <c:crossAx val="-2133755472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2056857024"/>
+        <c:axId val="-2133755472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060279600"/>
+        <c:crossAx val="2120329008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -588,7 +587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -817,8 +815,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2059293360"/>
-        <c:axId val="-2059123824"/>
+        <c:axId val="-2087889328"/>
+        <c:axId val="-1986962448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1027,11 +1025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1986580816"/>
-        <c:axId val="-2005097472"/>
+        <c:axId val="-2082405424"/>
+        <c:axId val="-1986725472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059293360"/>
+        <c:axId val="-2087889328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059123824"/>
+        <c:crossAx val="-1986962448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1085,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2059123824"/>
+        <c:axId val="-1986962448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,12 +1137,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059293360"/>
+        <c:crossAx val="-2087889328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2005097472"/>
+        <c:axId val="-1986725472"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1185,12 +1183,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1986580816"/>
+        <c:crossAx val="-2082405424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1986580816"/>
+        <c:axId val="-2082405424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1198,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2005097472"/>
+        <c:crossAx val="-1986725472"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1216,7 +1215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1345,7 +1343,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1574,8 +1571,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2058168848"/>
-        <c:axId val="-2084890448"/>
+        <c:axId val="-2118672768"/>
+        <c:axId val="-2082424288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1784,11 +1781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2008729504"/>
-        <c:axId val="-2008312928"/>
+        <c:axId val="-2085215232"/>
+        <c:axId val="-2084070704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058168848"/>
+        <c:axId val="-2118672768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084890448"/>
+        <c:crossAx val="-2082424288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084890448"/>
+        <c:axId val="-2082424288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,12 +1893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058168848"/>
+        <c:crossAx val="-2118672768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2008312928"/>
+        <c:axId val="-2084070704"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1942,12 +1939,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008729504"/>
+        <c:crossAx val="-2085215232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2008729504"/>
+        <c:axId val="-2085215232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1954,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008312928"/>
+        <c:crossAx val="-2084070704"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1973,7 +1971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2069,7 +2066,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2085,24 +2082,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1" u="sng"/>
+              <a:rPr lang="en-US" sz="1600" b="1" u="sng"/>
               <a:t>EK vs PP Comparison</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>K = 3  </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2116,7 +2112,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2334,8 +2330,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2008398448"/>
-        <c:axId val="-2008564304"/>
+        <c:axId val="-2133763776"/>
+        <c:axId val="-2006530928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2544,11 +2540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056424592"/>
-        <c:axId val="-2008636512"/>
+        <c:axId val="-2133841376"/>
+        <c:axId val="-2133793984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2008398448"/>
+        <c:axId val="-2133763776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008564304"/>
+        <c:crossAx val="-2006530928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2008564304"/>
+        <c:axId val="-2006530928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2634,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2656,12 +2652,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2008398448"/>
+        <c:crossAx val="-2133763776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2008636512"/>
+        <c:axId val="-2133793984"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2684,7 +2680,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -2702,12 +2698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056424592"/>
+        <c:crossAx val="-2133841376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2056424592"/>
+        <c:axId val="-2133841376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2008636512"/>
+        <c:crossAx val="-2133793984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2734,7 +2730,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2748,7 +2743,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -3003,11 +2998,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2105029568"/>
-        <c:axId val="-2083358720"/>
+        <c:axId val="-2129981136"/>
+        <c:axId val="-2100767808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2105029568"/>
+        <c:axId val="-2129981136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,7 +3048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083358720"/>
+        <c:crossAx val="-2100767808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3061,7 +3056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083358720"/>
+        <c:axId val="-2100767808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105029568"/>
+        <c:crossAx val="-2129981136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3371,11 +3366,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2109981392"/>
-        <c:axId val="-2081796416"/>
+        <c:axId val="-2043298512"/>
+        <c:axId val="-2101183200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2109981392"/>
+        <c:axId val="-2043298512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081796416"/>
+        <c:crossAx val="-2101183200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +3424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081796416"/>
+        <c:axId val="-2101183200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109981392"/>
+        <c:crossAx val="-2043298512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3739,11 +3734,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2116849952"/>
-        <c:axId val="-2100922640"/>
+        <c:axId val="-2088467856"/>
+        <c:axId val="-2085001968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116849952"/>
+        <c:axId val="-2088467856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,7 +3784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100922640"/>
+        <c:crossAx val="-2085001968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3797,7 +3792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100922640"/>
+        <c:axId val="-2085001968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116849952"/>
+        <c:crossAx val="-2088467856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4107,11 +4102,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2082192736"/>
-        <c:axId val="-2084488800"/>
+        <c:axId val="-2138795072"/>
+        <c:axId val="2073357504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082192736"/>
+        <c:axId val="-2138795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,7 +4152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084488800"/>
+        <c:crossAx val="2073357504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4165,7 +4160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084488800"/>
+        <c:axId val="2073357504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,7 +4214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082192736"/>
+        <c:crossAx val="-2138795072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4467,11 +4462,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2060879696"/>
-        <c:axId val="-2063065952"/>
+        <c:axId val="-2138843104"/>
+        <c:axId val="-2008426672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060879696"/>
+        <c:axId val="-2138843104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,7 +4512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063065952"/>
+        <c:crossAx val="-2008426672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4525,7 +4520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063065952"/>
+        <c:axId val="-2008426672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +4574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060879696"/>
+        <c:crossAx val="-2138843104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4827,11 +4822,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102217232"/>
-        <c:axId val="-2059638032"/>
+        <c:axId val="-2059359584"/>
+        <c:axId val="1820565040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102217232"/>
+        <c:axId val="-2059359584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,7 +4872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059638032"/>
+        <c:crossAx val="1820565040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4885,7 +4880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2059638032"/>
+        <c:axId val="1820565040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4939,7 +4934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102217232"/>
+        <c:crossAx val="-2059359584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5187,11 +5182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2081245984"/>
-        <c:axId val="-2057323136"/>
+        <c:axId val="-1985808496"/>
+        <c:axId val="1793339200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2081245984"/>
+        <c:axId val="-1985808496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5237,7 +5232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057323136"/>
+        <c:crossAx val="1793339200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5245,7 +5240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057323136"/>
+        <c:axId val="1793339200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5299,7 +5294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081245984"/>
+        <c:crossAx val="-1985808496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5407,7 +5402,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5639,8 +5633,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2082236272"/>
-        <c:axId val="-2083766416"/>
+        <c:axId val="-2062615696"/>
+        <c:axId val="-2008476496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5752,11 +5746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2010228512"/>
-        <c:axId val="-2007039136"/>
+        <c:axId val="-2086511280"/>
+        <c:axId val="-2056309328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2082236272"/>
+        <c:axId val="-2062615696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5802,7 +5796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083766416"/>
+        <c:crossAx val="-2008476496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5810,7 +5804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083766416"/>
+        <c:axId val="-2008476496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5864,12 +5858,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082236272"/>
+        <c:crossAx val="-2062615696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2007039136"/>
+        <c:axId val="-2056309328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5909,12 +5903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2010228512"/>
+        <c:crossAx val="-2086511280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2010228512"/>
+        <c:axId val="-2086511280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5924,7 +5918,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2007039136"/>
+        <c:crossAx val="-2056309328"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5940,7 +5935,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13263,7 +13257,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1400"/>
             <a:t>Log10 (Time)</a:t>
           </a:r>
         </a:p>
@@ -13426,8 +13420,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13458,8 +13452,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13490,8 +13484,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13515,15 +13509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13547,15 +13541,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13578,16 +13572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15516,8 +15510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15532,8 +15526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
